--- a/Output_testing/R1_201907/Country/HKD/MN/GUAM_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GUAM_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>199</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/GUAM_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GUAM_201907_HKD_MN.xlsx
@@ -646,8 +646,10 @@
       <c r="C10" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>0.05436</v>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E10" s="8" t="n">
         <v>0.554018</v>
@@ -655,8 +657,10 @@
       <c r="F10" s="8" t="n">
         <v>0.762687</v>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.0063</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>919.1648270787343</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/GUAM_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/GUAM_201907_HKD_MN.xlsx
@@ -814,136 +814,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>219.806647</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>40.47226549623432</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>222.069172</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>37.43319653109639</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>385.453384</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>49.23185895302635</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>221.497546</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>49.47544071217315</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>9.293825182772398</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>106.376257</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>19.58670574598072</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>126.283738</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>21.28707888925476</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>142.529356</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>18.20449746332408</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>78.845929</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>17.61164923080328</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>0.2179856911578515</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>29.543508</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.439747686366021</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>61.910652</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>10.43599876026158</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>63.881566</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>8.159244094249395</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>34.286231</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.658443263675586</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>2.899034566501801</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>10.379736</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.911186203449167</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>8.71294</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>1.468700911730562</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>26.733143</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.414478585942532</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>18.819016</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.203563999618479</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>38.68922835380544</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>3.444489</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0.6342222822172373</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>4.434539</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.7475101943092382</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>18.365117</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.345676253810828</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>18.300913</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.087836422847497</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>103.043852732429</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>28.790133</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.301031257930508</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>31.197518</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>5.258824590819013</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>25.267657</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>3.227300050107872</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>13.630773</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.044677079278299</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-10.62543045544744</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>14.9428</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.751367973222075</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>12.413186</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.09243465416737</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>13.078</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.670381628787772</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>8.706200000000001</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.944685571949054</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-14.12310120339317</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>13.595363</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.503268888195546</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>17.490414</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.948280028135736</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>13.403323</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.711933361669109</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>8.66123</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.93464071768766</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>7.516095331633843</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.589142</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.029110092927054</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>6.437462</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.085133870843922</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>5.891507</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.7524900641286559</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.596463</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.250070162648081</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>341.2559932445164</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>9.763735</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.797763991890907</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>11.345832</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.912515615021082</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>4.800075</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.6130874060868226</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>4.324919</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9660480553109658</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>13.66401025176589</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>100.872571</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>18.57333038158644</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>90.945821</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.33032595436035</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>83.531728</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>10.66905213886658</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>35.022691</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>7.822944784007947</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-32.93733594294665</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -975,136 +1272,503 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>WIRE PRODUCTS (EXCLUDING INSULATED ELECTRICAL WIRING) AND FENCING GRILLS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>0.740717</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>12.02680355291583</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1.066145</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>25.01653072133075</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1.036904</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>15.10535613846295</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.719378</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>27.17072150027458</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>20.28324443627001</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>3.929591151645143</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>11.58581826014686</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>1.535899</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>22.37458953549133</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>0.515857</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>19.48378582743307</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-50.57487012725708</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>STRUCTURES AND PARTS OF STRUCTURES, N.E.S., OF IRON, STEEL OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>6.027211094215917</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>9.957853113336689</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.643915</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>9.380391432474337</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>17.43300214305517</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>60.50799479764364</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.652203280301548</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.728795</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>10.61690187995331</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>10.32315035907694</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>12.72053910934781</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>1.126751</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>18.29472380146731</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>1.339959</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>31.44143197109553</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.8046720000000001</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>11.72225889248113</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>10.2115030015614</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-47.51444817391</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>6.016624762436707</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>5.839134142169366</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3.11822645243725</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>4.675894066449063</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>9.995557529986666</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>3.554701865678609</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>3.686383190916601</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>2.995291623955383</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>3.433884857953119</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>2.036906224055751</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>2.44109619877762</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>5.104729070448188</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FLAT-ROLLED PRODUCTS, OF IRON OR NON-ALLOY STEEL, CLAD, PLATED OR COATED</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>6.747893490461341</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>7.950092004199202</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.75268</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>10.96485254015636</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>2.374394834307919</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-78.13140290885563</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>676</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>IRON AND STEEL BARS, RODS, ANGLES, SHAPES AND SECTIONS (INCLUDING SHEET PILING)</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.5162184091931928</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.3999720881948944</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.641926226629028</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>58.33333333333333</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>2.448172</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>39.75024700087759</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>4.259036520575292</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.727234</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>10.59416162537608</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>1.249234218479828</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>26.74841923740181</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1136,136 +1800,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>219.806647</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>40.93649143860218</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>222.069172</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>37.7040571828923</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>385.453384</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>49.66732340564521</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>221.497546</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>49.76977605929913</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>9.293825182772398</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>106.376257</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>19.81136964411747</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>126.283738</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>21.44110880379825</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>142.529356</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>18.36551944566749</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>78.845929</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>17.71642305020119</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>0.2179856911578515</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>29.543508</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.502142809667967</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>61.910652</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>10.51151198617585</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>63.881566</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>8.231414043523014</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>34.286231</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>7.704004263719471</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>2.899034566501801</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>10.338957</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.925513311317542</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>8.703279999999999</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>1.477688072789873</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>26.733143</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.444680249662461</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>18.819016</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.228571507407884</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>38.68922835380544</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>3.444489</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0.6414969537243311</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>4.434539</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.7529190590928398</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>18.365117</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.366424172894309</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>18.300913</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.112155453364328</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>103.043852732429</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>28.790133</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.361835272755505</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>31.197518</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.29687660850247</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>25.267657</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.255846086752516</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>13.630773</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.062790229401191</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-10.62543045544744</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>14.9428</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.782926779592542</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>12.413186</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.10757517826868</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>13.078</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.685156448124549</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>8.706200000000001</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.95625474030069</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-14.12310120339317</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>13.595363</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.531981942539657</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>17.490414</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.969613313136774</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>13.403323</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.727075713392421</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>8.66123</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.946150127993216</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>7.516095331633843</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.589142</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.040914215993349</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>6.437462</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.092985726810817</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>5.891507</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.7591459711133904</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.596463</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.25750698038954</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>341.2559932445164</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>9.763735</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.818384747192292</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>11.345832</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.926354273593136</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>4.800075</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.6185102720394133</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>4.324919</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9717951913770092</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>13.66401025176589</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>94.754465</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.64694288449716</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>86.693719</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.71930979493901</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>76.667249</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>9.878904191185228</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>32.375069</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>7.274572396546358</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-33.95785575700231</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1297,136 +2258,513 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>0.3668904767605365</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>25.818</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>49.42777273378888</v>
+      </c>
+      <c r="K57" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>30.917801</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>60.71007842878369</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>10.803568</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>20.68310108521319</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-39.26204936713123</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>26.196326</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>76.56640818372365</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>16.304669</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>62.76127098676733</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>15.353567</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>30.14820674767862</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>7.393675</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>14.15496504638223</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-38.33042598917123</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>6.529862</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>19.08542744793244</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>6.225229</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>23.96266273321357</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>1.496364</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>2.938254754858163</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.794775</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>7.264980876747375</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>278.1170349083996</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.2455145155634721</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.270393</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>8.739383198730351</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.134133</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.226979317794035</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.726138</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.219107967501191</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>149.6433650515149</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.5581459085787795</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1.10946</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.178531507256882</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.830232811739956</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>0.3732755929957398</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.1474268072439265</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>0.541932</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.037512267920353</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.235430883674258</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.2886384203777916</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.2890374423640317</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.1669015337810435</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>8.342654040215747</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1553916702304604</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.1131719481518784</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>0.3505510224190461</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>1.195413</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>3.493943376110438</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0.809141</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>3.114611990436843</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>0.514838</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>1.010933971601607</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.05506588531807149</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-79.90049125455091</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
